--- a/Horarios Computacion.xlsx
+++ b/Horarios Computacion.xlsx
@@ -367,16 +367,14 @@
     </font>
     <font>
       <b/>
-      <strike/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <strike/>
       <sz val="10.0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1719,13 +1717,13 @@
     <mergeCell ref="W3:W12"/>
     <mergeCell ref="X3:X12"/>
     <mergeCell ref="Y3:Y10"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="W1:AE1"/>
     <mergeCell ref="AF1:AM1"/>
     <mergeCell ref="K2:K11"/>
     <mergeCell ref="L3:L12"/>
     <mergeCell ref="AH3:AH12"/>
-    <mergeCell ref="B1:J1"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E13:E22"/>

--- a/Horarios Computacion.xlsx
+++ b/Horarios Computacion.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="112">
   <si>
     <t>LUNES</t>
   </si>
@@ -33,16 +33,16 @@
     <t>08:30 - 09:00</t>
   </si>
   <si>
-    <t>ALGO 3 / TDA (TM)</t>
-  </si>
-  <si>
     <t>ALGO 2 / AED (TM)</t>
   </si>
   <si>
     <t>09:00 - 09:30</t>
   </si>
   <si>
-    <t>ALGO 1 / INTRO A LA PROG (TM)</t>
+    <t>IAP (A)</t>
+  </si>
+  <si>
+    <t>ALGO 3 / TDA (TN)</t>
   </si>
   <si>
     <t>ANALISIS 2 (TURNO 1 Y 2)</t>
@@ -51,6 +51,9 @@
     <t>ALGEBRA I (TURNO 1 Y 2)</t>
   </si>
   <si>
+    <t>IAP (A+ B)</t>
+  </si>
+  <si>
     <t>ORGA I (TM)</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
     <t>11:30 - 12:00</t>
   </si>
   <si>
+    <t>IAP (B)</t>
+  </si>
+  <si>
     <t>12:00 - 12:30</t>
   </si>
   <si>
@@ -108,60 +114,60 @@
     <t>17:00 - 17:30</t>
   </si>
   <si>
-    <t>ALGO 1 / INTRO A LA PROG (TN)</t>
-  </si>
-  <si>
-    <t>ALGO 3 / TDA (TN)</t>
+    <t>IAP (C)</t>
+  </si>
+  <si>
+    <t>ANALISIS 2 (TURNO 4)</t>
+  </si>
+  <si>
+    <t>ISW I</t>
+  </si>
+  <si>
+    <t>ISW II</t>
+  </si>
+  <si>
+    <t>TLENG</t>
+  </si>
+  <si>
+    <t>ALGO 2 / AED (TN)</t>
+  </si>
+  <si>
+    <t>PLP</t>
+  </si>
+  <si>
+    <t>SSOO</t>
+  </si>
+  <si>
+    <t>ORGA II</t>
+  </si>
+  <si>
+    <t>PROBA Y EST</t>
+  </si>
+  <si>
+    <t>ALGEBRA I (TURNO 4)</t>
+  </si>
+  <si>
+    <t>LyC</t>
+  </si>
+  <si>
+    <t>IAP (C+ D)</t>
   </si>
   <si>
     <t>ORGA I (TN)</t>
   </si>
   <si>
-    <t>ANALISIS 2 (TURNO 4)</t>
-  </si>
-  <si>
-    <t>ISW I</t>
-  </si>
-  <si>
-    <t>ISW II</t>
+    <t>BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>17:30 - 18:00</t>
+  </si>
+  <si>
+    <t>18:00 - 18:30</t>
   </si>
   <si>
     <t>METNUM</t>
   </si>
   <si>
-    <t>TLENG</t>
-  </si>
-  <si>
-    <t>ALGO 2 / AED (TN)</t>
-  </si>
-  <si>
-    <t>PLP</t>
-  </si>
-  <si>
-    <t>SSOO</t>
-  </si>
-  <si>
-    <t>ORGA II</t>
-  </si>
-  <si>
-    <t>PROBA Y EST</t>
-  </si>
-  <si>
-    <t>ALGEBRA I (TURNO 4)</t>
-  </si>
-  <si>
-    <t>LyC</t>
-  </si>
-  <si>
-    <t>BASE DE DATOS</t>
-  </si>
-  <si>
-    <t>17:30 - 18:00</t>
-  </si>
-  <si>
-    <t>18:00 - 18:30</t>
-  </si>
-  <si>
     <t>18:30 - 19:00</t>
   </si>
   <si>
@@ -172,6 +178,9 @@
   </si>
   <si>
     <t>19:30 - 20:00</t>
+  </si>
+  <si>
+    <t>IAP (D)</t>
   </si>
   <si>
     <t>20:00 - 20:30</t>
@@ -401,12 +410,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF9000"/>
-        <bgColor rgb="FFBF9000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF1C232"/>
         <bgColor rgb="FFF1C232"/>
       </patternFill>
@@ -415,6 +418,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD966"/>
         <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF9000"/>
+        <bgColor rgb="FFBF9000"/>
       </patternFill>
     </fill>
     <fill>
@@ -445,12 +454,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF741B47"/>
         <bgColor rgb="FF741B47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7F6000"/>
-        <bgColor rgb="FF7F6000"/>
       </patternFill>
     </fill>
     <fill>
@@ -493,6 +496,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF274E13"/>
         <bgColor rgb="FF274E13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F6000"/>
+        <bgColor rgb="FF7F6000"/>
       </patternFill>
     </fill>
     <fill>
@@ -676,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -688,14 +697,21 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
     <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -709,13 +725,12 @@
     <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
@@ -735,38 +750,29 @@
     <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1095,11 +1101,11 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -1122,532 +1128,540 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="AF2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG2" s="5" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="T2" s="5"/>
+      <c r="W2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AG2" s="5"/>
       <c r="AM2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="11"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="8" t="s">
+      <c r="R3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF3" s="11"/>
-      <c r="AH3" s="12" t="s">
+      <c r="Z3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="AM3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="11"/>
-      <c r="AF4" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="5"/>
       <c r="AM4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="E5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="11"/>
-      <c r="AF5" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="E5" s="18"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="5"/>
       <c r="AM5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="11"/>
-      <c r="AF6" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="E6" s="18"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="5"/>
       <c r="AM6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="11"/>
-      <c r="AF7" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="AF7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="5"/>
       <c r="AM7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="11"/>
-      <c r="AF8" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="R8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="5"/>
       <c r="AM8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="E9" s="15"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="11"/>
-      <c r="AF9" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="5"/>
       <c r="AM9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="E10" s="15"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="11"/>
-      <c r="AF10" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="5"/>
       <c r="AM10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="11"/>
-      <c r="AF11" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="5"/>
       <c r="AM11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="K12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="11"/>
-      <c r="AF12" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="K12" s="8"/>
+      <c r="R12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="AF12" s="14"/>
       <c r="AM12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="E13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="K13" s="16"/>
-      <c r="P13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="V13" s="6"/>
-      <c r="AD13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF13" s="16"/>
-      <c r="AI13" s="12" t="s">
-        <v>24</v>
+      <c r="C13" s="13"/>
+      <c r="E13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="K13" s="8"/>
+      <c r="P13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="W13" s="6"/>
+      <c r="AD13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF13" s="8"/>
+      <c r="AI13" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="AM13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="K14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="16"/>
-      <c r="AF14" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="K14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="W14" s="6"/>
+      <c r="AF14" s="8"/>
       <c r="AM14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="K15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="16"/>
-      <c r="AF15" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="K15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="W15" s="6"/>
+      <c r="AF15" s="8"/>
       <c r="AM15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="K16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="16"/>
-      <c r="AF16" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="K16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="W16" s="6"/>
+      <c r="AF16" s="8"/>
       <c r="AM16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="K17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="16"/>
-      <c r="AF17" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="K17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="W17" s="6"/>
+      <c r="AF17" s="8"/>
       <c r="AM17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="K18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="16"/>
-      <c r="AF18" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="K18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="W18" s="6"/>
+      <c r="AF18" s="8"/>
       <c r="AM18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="C19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="F19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="K19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="M19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="N19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="O19" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="Q19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="R19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="5"/>
+      <c r="V19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="X19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="S19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="U19" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="X19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y19" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z19" s="24" t="s">
+      <c r="AJ19" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL19" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AA19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB19" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH19" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ19" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK19" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL19" s="25" t="s">
+      <c r="AM19" s="29" t="s">
         <v>43</v>
-      </c>
-      <c r="AM19" s="29" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="D20" s="18"/>
+      <c r="I20" s="5"/>
+      <c r="K20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="U20" s="5"/>
+      <c r="X20" s="14"/>
+      <c r="AF20" s="17"/>
+      <c r="AH20" s="5"/>
       <c r="AM20" s="30"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="D21" s="18"/>
+      <c r="I21" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="U21" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="X21" s="14"/>
+      <c r="AF21" s="17"/>
+      <c r="AH21" s="31" t="s">
+        <v>50</v>
+      </c>
       <c r="AM21" s="30"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="D22" s="18"/>
+      <c r="K22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="AF22" s="8"/>
       <c r="AM22" s="30"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="K23" s="11"/>
-      <c r="P23" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="R23" s="11"/>
-      <c r="U23" s="31" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="P23" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="R23" s="14"/>
       <c r="V23" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="W23" s="11"/>
-      <c r="AI23" s="31" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="W23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="X23" s="14"/>
+      <c r="AF23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI23" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="AM23" s="30"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="K24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="11"/>
-      <c r="AB24" s="21" t="s">
-        <v>38</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="R24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X24" s="14"/>
+      <c r="AF24" s="14"/>
       <c r="AM24" s="30"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="D25" s="10"/>
-      <c r="K25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="AF25" s="14"/>
       <c r="AM25" s="30"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="K26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="AF26" s="14"/>
       <c r="AM26" s="30"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="I27" s="15"/>
-      <c r="K27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="K27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="AF27" s="14"/>
       <c r="AM27" s="30"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="34"/>
@@ -1656,10 +1670,10 @@
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
-      <c r="I28" s="37"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="33"/>
-      <c r="L28" s="36"/>
+      <c r="L28" s="34"/>
       <c r="M28" s="36"/>
       <c r="N28" s="34"/>
       <c r="O28" s="34"/>
@@ -1669,88 +1683,89 @@
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
       <c r="U28" s="34"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="33"/>
       <c r="Y28" s="34"/>
       <c r="Z28" s="34"/>
-      <c r="AA28" s="36"/>
+      <c r="AA28" s="34"/>
       <c r="AB28" s="34"/>
       <c r="AC28" s="36"/>
       <c r="AD28" s="36"/>
       <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
+      <c r="AF28" s="33"/>
       <c r="AG28" s="34"/>
       <c r="AH28" s="34"/>
       <c r="AI28" s="34"/>
       <c r="AJ28" s="34"/>
       <c r="AK28" s="34"/>
       <c r="AL28" s="34"/>
-      <c r="AM28" s="38"/>
+      <c r="AM28" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="62">
+    <mergeCell ref="Q19:Q28"/>
+    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="X19:X28"/>
+    <mergeCell ref="W23:W28"/>
+    <mergeCell ref="V23:V28"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="M19:M26"/>
     <mergeCell ref="N19:N28"/>
     <mergeCell ref="O19:O28"/>
+    <mergeCell ref="S19:S28"/>
+    <mergeCell ref="U21:U28"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="R24:R28"/>
+    <mergeCell ref="T19:T28"/>
+    <mergeCell ref="AG19:AG28"/>
+    <mergeCell ref="AF23:AF28"/>
+    <mergeCell ref="AH3:AH12"/>
+    <mergeCell ref="AF7:AF12"/>
+    <mergeCell ref="AD13:AD22"/>
+    <mergeCell ref="AI13:AI22"/>
+    <mergeCell ref="AC19:AC26"/>
+    <mergeCell ref="AE19:AE28"/>
+    <mergeCell ref="AH21:AH28"/>
+    <mergeCell ref="AI23:AI28"/>
+    <mergeCell ref="P13:P22"/>
+    <mergeCell ref="S2:S11"/>
+    <mergeCell ref="R8:R12"/>
+    <mergeCell ref="R3:R7"/>
+    <mergeCell ref="X3:X12"/>
+    <mergeCell ref="Y3:Y12"/>
+    <mergeCell ref="Z3:Z12"/>
+    <mergeCell ref="Y19:Y28"/>
+    <mergeCell ref="Z19:Z28"/>
+    <mergeCell ref="AA19:AA28"/>
+    <mergeCell ref="AB19:AB28"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="E13:E22"/>
+    <mergeCell ref="F19:F28"/>
     <mergeCell ref="G19:G28"/>
     <mergeCell ref="H19:H28"/>
-    <mergeCell ref="I19:I26"/>
     <mergeCell ref="J19:J28"/>
     <mergeCell ref="K19:K28"/>
-    <mergeCell ref="L19:L26"/>
-    <mergeCell ref="M19:M26"/>
-    <mergeCell ref="AC19:AC26"/>
-    <mergeCell ref="AE19:AE28"/>
-    <mergeCell ref="U23:U28"/>
-    <mergeCell ref="V23:V28"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="W19:W28"/>
-    <mergeCell ref="X19:X28"/>
-    <mergeCell ref="Y19:Y28"/>
-    <mergeCell ref="Z19:Z28"/>
-    <mergeCell ref="AA19:AA26"/>
-    <mergeCell ref="AB19:AB23"/>
-    <mergeCell ref="AB24:AB28"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W3:W12"/>
-    <mergeCell ref="X3:X12"/>
-    <mergeCell ref="Y3:Y10"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="W1:AE1"/>
-    <mergeCell ref="AF1:AM1"/>
-    <mergeCell ref="K2:K11"/>
-    <mergeCell ref="L3:L12"/>
-    <mergeCell ref="AH3:AH12"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E13:E22"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F19:F28"/>
-    <mergeCell ref="R2:R11"/>
-    <mergeCell ref="S2:S11"/>
-    <mergeCell ref="P13:P22"/>
-    <mergeCell ref="Q19:Q28"/>
-    <mergeCell ref="R19:R28"/>
-    <mergeCell ref="S19:S28"/>
-    <mergeCell ref="T19:T28"/>
-    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="L19:L28"/>
+    <mergeCell ref="I21:I28"/>
     <mergeCell ref="AJ19:AJ28"/>
     <mergeCell ref="AK19:AK28"/>
     <mergeCell ref="AL19:AL28"/>
     <mergeCell ref="AM19:AM28"/>
-    <mergeCell ref="AF2:AF11"/>
-    <mergeCell ref="AG2:AG11"/>
-    <mergeCell ref="AD13:AD22"/>
-    <mergeCell ref="AI13:AI22"/>
-    <mergeCell ref="AF19:AF28"/>
-    <mergeCell ref="AG19:AG28"/>
-    <mergeCell ref="AH19:AH28"/>
-    <mergeCell ref="AI23:AI28"/>
+    <mergeCell ref="K2:K11"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="AF1:AM1"/>
+    <mergeCell ref="L3:L12"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="X1:AE1"/>
+    <mergeCell ref="T3:T12"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1771,568 +1786,568 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="40" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="40" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="40" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="42"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="8"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="16"/>
+      <c r="Q2" s="8"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="11"/>
-      <c r="K3" s="44"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="14"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="30"/>
-      <c r="M3" s="16"/>
+      <c r="M3" s="8"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="8"/>
       <c r="T3" s="6"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="11"/>
-      <c r="K4" s="44"/>
+        <v>15</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="14"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="30"/>
-      <c r="M4" s="16"/>
+      <c r="M4" s="8"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="8"/>
       <c r="T4" s="6"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="11"/>
-      <c r="K5" s="44"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="14"/>
+      <c r="K5" s="43"/>
       <c r="L5" s="30"/>
-      <c r="M5" s="16"/>
+      <c r="M5" s="8"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="8"/>
       <c r="T5" s="6"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="16"/>
+      <c r="M6" s="8"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="16"/>
+      <c r="Q6" s="8"/>
       <c r="T6" s="6"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
+        <v>18</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="16"/>
+      <c r="M7" s="8"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="16"/>
+      <c r="Q7" s="8"/>
       <c r="T7" s="6"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
+        <v>20</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="16"/>
+      <c r="M8" s="8"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="8"/>
       <c r="T8" s="6"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="16"/>
+      <c r="M9" s="8"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="16"/>
+      <c r="Q9" s="8"/>
       <c r="T9" s="6"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="16"/>
+      <c r="M10" s="8"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="16"/>
+      <c r="Q10" s="8"/>
       <c r="T10" s="6"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
+        <v>23</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="16"/>
+      <c r="M11" s="8"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="8"/>
       <c r="T11" s="6"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="44"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="43"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="49" t="s">
-        <v>60</v>
+      <c r="M12" s="8"/>
+      <c r="N12" s="48" t="s">
+        <v>63</v>
       </c>
       <c r="P12" s="6"/>
-      <c r="Q12" s="16"/>
+      <c r="Q12" s="8"/>
       <c r="T12" s="6"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="11"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="43"/>
-      <c r="K13" s="44"/>
+        <v>27</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="14"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="42"/>
+      <c r="K13" s="43"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="16"/>
+      <c r="M13" s="8"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="16"/>
+      <c r="Q13" s="8"/>
       <c r="T13" s="6"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="11"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="43"/>
-      <c r="K14" s="44"/>
+        <v>28</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="42"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="16"/>
+      <c r="M14" s="8"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="16"/>
+      <c r="Q14" s="8"/>
       <c r="T14" s="6"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="11"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="43"/>
-      <c r="K15" s="44"/>
+        <v>29</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="14"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="42"/>
+      <c r="K15" s="43"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="16"/>
-      <c r="O15" s="51" t="s">
-        <v>63</v>
+      <c r="M15" s="8"/>
+      <c r="O15" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="16"/>
+      <c r="Q15" s="8"/>
       <c r="T15" s="6"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="43"/>
-      <c r="G16" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="43"/>
-      <c r="K16" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="42"/>
+      <c r="G16" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="42"/>
+      <c r="K16" s="43"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="16"/>
+      <c r="M16" s="8"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="16"/>
+      <c r="Q16" s="8"/>
       <c r="T16" s="6"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="43"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="43"/>
-      <c r="K17" s="44"/>
+        <v>31</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="42"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="42"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="16"/>
+      <c r="M17" s="8"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="16"/>
+      <c r="Q17" s="8"/>
       <c r="T17" s="6"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="43"/>
-      <c r="K18" s="44"/>
+        <v>32</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="42"/>
+      <c r="K18" s="43"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="16"/>
+      <c r="M18" s="8"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="16"/>
+      <c r="Q18" s="8"/>
       <c r="T18" s="6"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="43"/>
-      <c r="K19" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="42"/>
+      <c r="K19" s="43"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="16"/>
+      <c r="M19" s="8"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="16"/>
+      <c r="Q19" s="8"/>
       <c r="T19" s="6"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="H20" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="53" t="s">
-        <v>66</v>
+        <v>49</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="H20" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="52" t="s">
+        <v>69</v>
       </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="54" t="s">
-        <v>67</v>
+      <c r="M20" s="53" t="s">
+        <v>70</v>
       </c>
       <c r="P20" s="6"/>
-      <c r="Q20" s="53" t="s">
-        <v>66</v>
+      <c r="Q20" s="52" t="s">
+        <v>69</v>
       </c>
       <c r="T20" s="6"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
+        <v>51</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="11"/>
+      <c r="M21" s="14"/>
       <c r="P21" s="6"/>
       <c r="T21" s="6"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="D22" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+        <v>52</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="D22" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="30"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="11"/>
+      <c r="M22" s="14"/>
       <c r="P22" s="6"/>
       <c r="T22" s="6"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="43"/>
+        <v>54</v>
+      </c>
+      <c r="B23" s="42"/>
       <c r="D23" s="30"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
       <c r="H23" s="30"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="11"/>
+      <c r="M23" s="14"/>
       <c r="P23" s="6"/>
       <c r="T23" s="6"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="43"/>
+        <v>56</v>
+      </c>
+      <c r="B24" s="42"/>
       <c r="D24" s="30"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="30"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="11"/>
+      <c r="M24" s="14"/>
       <c r="P24" s="6"/>
       <c r="T24" s="6"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="43"/>
+        <v>57</v>
+      </c>
+      <c r="B25" s="42"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="30"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="11"/>
+      <c r="M25" s="14"/>
       <c r="P25" s="6"/>
       <c r="T25" s="6"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
+        <v>58</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="30"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="30"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="16"/>
+      <c r="M26" s="8"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="16"/>
+      <c r="Q26" s="8"/>
       <c r="T26" s="6"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="59"/>
+        <v>59</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="58"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="58"/>
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
-      <c r="T27" s="58"/>
+      <c r="T27" s="57"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="AC28" s="15"/>
+      <c r="AC28" s="5"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="AC29" s="15"/>
+      <c r="AC29" s="5"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="AC30" s="15"/>
+      <c r="AC30" s="5"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="AC31" s="15"/>
+      <c r="AC31" s="5"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="AC32" s="15"/>
+      <c r="AC32" s="5"/>
     </row>
     <row r="33" ht="18.75" customHeight="1"/>
     <row r="34" ht="18.75" customHeight="1"/>
@@ -3340,285 +3355,285 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
-        <v>69</v>
+      <c r="A1" s="59" t="s">
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="E1" s="61" t="s">
-        <v>70</v>
+      <c r="E1" s="60" t="s">
+        <v>73</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="62" t="s">
-        <v>71</v>
+      <c r="A2" s="61" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>73</v>
+      <c r="C2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="65" t="s">
-        <v>74</v>
+      <c r="H2" s="64" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>76</v>
+      <c r="E3" s="63" t="s">
+        <v>79</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="65" t="s">
-        <v>77</v>
+      <c r="H3" s="64" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="62" t="s">
-        <v>78</v>
+      <c r="A4" s="61" t="s">
+        <v>81</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>80</v>
+      <c r="C4" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>83</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="65" t="s">
-        <v>81</v>
+      <c r="H4" s="64" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="62" t="s">
-        <v>82</v>
+      <c r="A5" s="61" t="s">
+        <v>85</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>84</v>
+      <c r="C5" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>87</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="65" t="s">
-        <v>81</v>
+      <c r="H5" s="64" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="62" t="s">
-        <v>85</v>
+      <c r="A6" s="61" t="s">
+        <v>88</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>86</v>
+      <c r="C6" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>89</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="65" t="s">
-        <v>81</v>
+      <c r="H6" s="64" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="62" t="s">
-        <v>87</v>
+      <c r="A7" s="61" t="s">
+        <v>90</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>88</v>
+      <c r="C7" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="65" t="s">
-        <v>89</v>
+      <c r="H7" s="64" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="62" t="s">
-        <v>40</v>
+      <c r="A8" s="61" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>90</v>
+      <c r="C8" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>93</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="65" t="s">
-        <v>89</v>
+      <c r="H8" s="64" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="62" t="s">
-        <v>91</v>
+      <c r="A9" s="61" t="s">
+        <v>94</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>92</v>
+      <c r="C9" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>95</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="65" t="s">
-        <v>89</v>
+      <c r="H9" s="64" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="62" t="s">
-        <v>93</v>
+      <c r="A10" s="61" t="s">
+        <v>96</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>94</v>
+      <c r="C10" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>97</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="65" t="s">
-        <v>79</v>
+      <c r="H10" s="64" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="62" t="s">
-        <v>95</v>
+      <c r="A11" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>96</v>
+      <c r="C11" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>99</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="65" t="s">
-        <v>79</v>
+      <c r="H11" s="64" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="62" t="s">
-        <v>97</v>
+      <c r="A12" s="61" t="s">
+        <v>100</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>41</v>
+      <c r="C12" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="65" t="s">
-        <v>79</v>
+      <c r="H12" s="64" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="62" t="s">
-        <v>98</v>
+      <c r="A13" s="61" t="s">
+        <v>101</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>99</v>
+      <c r="C13" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>102</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="65" t="s">
-        <v>100</v>
+      <c r="H13" s="64" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="62" t="s">
-        <v>41</v>
+      <c r="A14" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>101</v>
+      <c r="C14" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>104</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="65" t="s">
-        <v>100</v>
+      <c r="H14" s="64" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="62" t="s">
-        <v>102</v>
+      <c r="A15" s="61" t="s">
+        <v>105</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>103</v>
+      <c r="C15" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>106</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="65" t="s">
-        <v>104</v>
+      <c r="H15" s="64" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="62" t="s">
-        <v>105</v>
+      <c r="A16" s="61" t="s">
+        <v>108</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="64" t="s">
-        <v>106</v>
+      <c r="C16" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>109</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="65" t="s">
-        <v>104</v>
+      <c r="H16" s="64" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="62" t="s">
-        <v>107</v>
+      <c r="A17" s="61" t="s">
+        <v>110</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="66"/>
+      <c r="C17" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="65"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="67"/>
+      <c r="H17" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="34">
